--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_7_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_7_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.404056378340179e-05</v>
+        <v>1.810604742158439e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.404056378340179e-05</v>
+        <v>1.810604742158439e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>46.89075327031956</v>
+        <v>51.28363526353807</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[26.86086854823033, 66.9206379924088]</t>
+          <t>[28.756529442228413, 73.81074108484773]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.360139490287239e-05</v>
+        <v>3.609609564492189e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>2.360139490287239e-05</v>
+        <v>3.609609564492189e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452734</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 2.0566582537014275]</t>
+          <t>[1.1761317842268086, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.05045707421425e-06</v>
+        <v>8.11657725474646e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05045707421425e-06</v>
+        <v>8.11657725474646e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>54.0058609777486</v>
+        <v>65.04649072840394</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.75298198259159, 66.2587399729056]</t>
+          <t>[51.4147662067068, 78.67821525010108]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.889444156688569e-11</v>
+        <v>1.777245017819951e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.889444156688569e-11</v>
+        <v>1.777245017819951e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.78530530530547</v>
+        <v>17.06354354354371</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.76744744744759</v>
+        <v>15.04224224224239</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.80316316316335</v>
+        <v>19.08484484484504</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01658663980310737</v>
+        <v>0.002415222203151046</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01658663980310737</v>
+        <v>0.002415222203151046</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>29.34991990408361</v>
+        <v>36.62042602148654</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[4.057566192182335, 54.642273615984884]</t>
+          <t>[11.759897287404186, 61.48095475556889]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02393651528164664</v>
+        <v>0.00480392796184903</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02393651528164664</v>
+        <v>0.00480392796184903</v>
       </c>
       <c r="P3" t="n">
-        <v>1.981184556317888</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8490790955648091, 3.113290017070968]</t>
+          <t>[1.2516054816103477, 2.7359215301532736]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0009870149569923825</v>
+        <v>2.317328088974335e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0009870149569923825</v>
+        <v>2.317328088974335e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>51.46724948815165</v>
+        <v>63.13665594884254</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[37.65247643207522, 65.28202254422808]</t>
+          <t>[49.20735123490637, 77.0659606627787]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.836782059783104e-09</v>
+        <v>8.33177971060195e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.836782059783104e-09</v>
+        <v>8.33177971060195e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>16.04900900900916</v>
+        <v>16.02938938938955</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.8255855855857</v>
+        <v>13.2559759759761</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.27243243243263</v>
+        <v>18.80280280280299</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001786369281128186</v>
+        <v>7.714506438105673e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001786369281128186</v>
+        <v>7.714506438105673e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>42.96602303247761</v>
+        <v>48.7490498636465</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[17.527125591864646, 68.40492047309057]</t>
+          <t>[31.119811683909504, 66.3782880433835]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001414413200067743</v>
+        <v>1.353804527592928e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001414413200067743</v>
+        <v>1.353804527592928e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>2.144710900648888</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 2.7359215301532736]</t>
+          <t>[1.1887107337907326, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.585996388721924e-09</v>
+        <v>2.186425707151329e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>3.585996388721924e-09</v>
+        <v>2.186425707151329e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>65.27912051039311</v>
+        <v>52.85877297239808</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[52.01388253994645, 78.54435848083978]</t>
+          <t>[41.88081407178338, 63.83673187301278]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.865619184281968e-13</v>
+        <v>1.34736666268509e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>6.865619184281968e-13</v>
+        <v>1.34736666268509e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>15.43895895895911</v>
+        <v>17.39259259259276</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.23339339339352</v>
+        <v>15.7473473473475</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.64452452452469</v>
+        <v>19.03783783783803</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00176255613109999</v>
+        <v>0.0002215180211480039</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00176255613109999</v>
+        <v>0.0002215180211480039</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>41.09124491019442</v>
+        <v>40.27876425871541</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[13.693087099769798, 68.48940272061904]</t>
+          <t>[16.3612357644905, 64.19629275294032]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.004147907446057975</v>
+        <v>0.001455678072229016</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004147907446057975</v>
+        <v>0.001455678072229016</v>
       </c>
       <c r="P5" t="n">
-        <v>1.956026657190042</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 2.6981846814615045]</t>
+          <t>[1.4654476241970409, 2.6730267823336584]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.273930480274245e-06</v>
+        <v>1.421737327866879e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>3.273930480274245e-06</v>
+        <v>1.421737327866879e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>62.76454734312643</v>
+        <v>68.98453917656042</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.59832603831349, 77.93076864793937]</t>
+          <t>[56.36420281521097, 81.60487553790986]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.126496673720112e-10</v>
+        <v>2.353672812205332e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.126496673720112e-10</v>
+        <v>2.353672812205332e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>16.14286286286302</v>
+        <v>15.7473473473475</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.3741741741743</v>
+        <v>13.49101101101114</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.91155155155174</v>
+        <v>18.00368368368386</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.68661367491308e-05</v>
+        <v>3.09003333025526e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>8.68661367491308e-05</v>
+        <v>3.09003333025526e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>43.32877507504124</v>
+        <v>51.15391926809096</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.50762805081311, 67.14992209926938]</t>
+          <t>[24.044994177139714, 78.2628443590422]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0006528893705315397</v>
+        <v>0.0004312232321408427</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006528893705315397</v>
+        <v>0.0004312232321408427</v>
       </c>
       <c r="P6" t="n">
-        <v>1.993763505881811</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 2.5723951858222733]</t>
+          <t>[1.8553950606786556, 2.8617110257925047]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.251170478333563e-08</v>
+        <v>3.05311331771918e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.251170478333563e-08</v>
+        <v>3.05311331771918e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>64.54271874177925</v>
+        <v>54.95723463894799</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[51.832892754748045, 77.25254472881046]</t>
+          <t>[40.78121227378553, 69.13325700411045]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.55573340268711e-13</v>
+        <v>6.564357946103883e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>2.55573340268711e-13</v>
+        <v>6.564357946103883e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>16.00208208208224</v>
+        <v>14.66618618618633</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.84344344344358</v>
+        <v>12.78590590590603</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.1607207207209</v>
+        <v>16.54646646646663</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0005664623389161072</v>
+        <v>0.0006162338067408069</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005664623389161072</v>
+        <v>0.0006162338067408069</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.41027947547282</v>
+        <v>42.7866939804381</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[15.315035907429817, 71.50552304351582]</t>
+          <t>[16.13058027158212, 69.44280768929409]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.003224139746109911</v>
+        <v>0.002296259832721859</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003224139746109911</v>
+        <v>0.002296259832721859</v>
       </c>
       <c r="P7" t="n">
-        <v>2.459184639746965</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.8428161111147334, 3.075553168379196]</t>
+          <t>[1.2516054816103486, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.056930264477842e-10</v>
+        <v>6.280057480712031e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>3.056930264477842e-10</v>
+        <v>6.280057480712031e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>76.91723780548229</v>
+        <v>58.68920350748319</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[62.20735960115442, 91.62711600981015]</t>
+          <t>[44.24663872337283, 73.13176829159354]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.001421168211891e-13</v>
+        <v>1.859947751370328e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.001421168211891e-13</v>
+        <v>1.859947751370328e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>14.26578578578592</v>
+        <v>16.31143143143159</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.96636636636648</v>
+        <v>13.82006006006019</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.56520520520537</v>
+        <v>18.80280280280299</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.34406116514274e-06</v>
+        <v>0.0004191564782948243</v>
       </c>
       <c r="I8" t="n">
-        <v>1.34406116514274e-06</v>
+        <v>0.0004191564782948243</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.79481342520607</v>
+        <v>43.00954285300235</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[25.083464192224252, 62.506162658187876]</t>
+          <t>[15.413340979912732, 70.60574472609197]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.367820518434094e-05</v>
+        <v>0.002990232970284445</v>
       </c>
       <c r="O8" t="n">
-        <v>2.367820518434094e-05</v>
+        <v>0.002990232970284445</v>
       </c>
       <c r="P8" t="n">
-        <v>2.660447832769735</v>
+        <v>2.610132034514043</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.207605648468504, 3.113290017070966]</t>
+          <t>[1.9686056067539646, 3.251658462274121]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>1.798534654540163e-10</v>
       </c>
       <c r="S8" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>1.798534654540163e-10</v>
       </c>
       <c r="T8" t="n">
-        <v>63.90785986240996</v>
+        <v>60.82363247282126</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.603055137284144, 74.21266458753577]</t>
+          <t>[46.54875643279162, 75.0985085128509]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.98168173379554e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.98168173379554e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>13.51495495495509</v>
+        <v>13.72604604604618</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.8255855855857</v>
+        <v>11.3286886886888</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.20432432432447</v>
+        <v>16.12340340340356</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00440607350946598</v>
+        <v>0.04201551600984255</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00440607350946598</v>
+        <v>0.04201551600984255</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>33.18803510243848</v>
+        <v>22.37908273387868</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[6.967696532640396, 59.40837367223656]</t>
+          <t>[0.11463556862670998, 44.643529899130655]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01427164407998971</v>
+        <v>0.04888079767810494</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01427164407998971</v>
+        <v>0.04888079767810494</v>
       </c>
       <c r="P9" t="n">
-        <v>2.547237286694427</v>
+        <v>2.886868924920351</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.8050792624229643, 3.28939531096589]</t>
+          <t>[1.54092132158058, 4.232816528260122]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.372503066754405e-08</v>
+        <v>8.497491785131039e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.372503066754405e-08</v>
+        <v>8.497491785131039e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>54.45580613042605</v>
+        <v>58.40639585295722</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.909589538435, 68.00202272241711]</t>
+          <t>[46.092123524873, 70.72066818104145]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.49403830920869e-10</v>
+        <v>2.136513188588651e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.49403830920869e-10</v>
+        <v>2.136513188588651e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>13.93729729729743</v>
+        <v>12.69189189189202</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.16860860860871</v>
+        <v>7.662142142142218</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.70598598598615</v>
+        <v>17.72164164164181</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.44000000000023</v>
+        <v>23.48000000000023</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003912831632674529</v>
+        <v>0.001540235241989873</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003912831632674529</v>
+        <v>0.001540235241989873</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>35.33050444990081</v>
+        <v>37.19458451768744</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[11.39371266317189, 59.26729623662974]</t>
+          <t>[11.761639064906142, 62.627529970468736]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.004726901501302505</v>
+        <v>0.00508921210451807</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004726901501302505</v>
+        <v>0.00508921210451807</v>
       </c>
       <c r="P10" t="n">
-        <v>2.899447874484274</v>
+        <v>2.735921530153273</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.9811845563178885, 3.817711192650659]</t>
+          <t>[2.0063424554457336, 3.4655006048608126]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.119356358944231e-08</v>
+        <v>1.554351980459501e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>9.119356358944231e-08</v>
+        <v>1.554351980459501e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>68.63467875053634</v>
+        <v>61.0557835214037</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[54.31191156818849, 82.95744593288418]</t>
+          <t>[47.284911324220516, 74.82665571858688]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.560751528018045e-12</v>
+        <v>1.591859977168042e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.560751528018045e-12</v>
+        <v>1.591859977168042e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>12.62334334334346</v>
+        <v>13.25597597597611</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.197677677677767</v>
+        <v>10.52956956956968</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.04900900900916</v>
+        <v>15.98238238238254</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.575683900023606e-07</v>
+        <v>0.001084110647569192</v>
       </c>
       <c r="I11" t="n">
-        <v>1.575683900023606e-07</v>
+        <v>0.001084110647569192</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>46.7222231209067</v>
+        <v>37.21177720411217</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[30.416249116380826, 63.028197125432584]</t>
+          <t>[12.105964858867715, 62.31758954935663]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.819912827804586e-07</v>
+        <v>0.004568969138974532</v>
       </c>
       <c r="O11" t="n">
-        <v>6.819912827804586e-07</v>
+        <v>0.004568969138974532</v>
       </c>
       <c r="P11" t="n">
-        <v>3.037816319687427</v>
+        <v>2.484342538874812</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.6227109840779654, 3.4529216552968895]</t>
+          <t>[1.8553950606786564, 3.113290017070967]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.998907871505253e-10</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.998907871505253e-10</v>
       </c>
       <c r="T11" t="n">
-        <v>55.67924518354427</v>
+        <v>66.6022587806617</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.576743452516, 65.78174691457255]</t>
+          <t>[53.20715590589232, 79.99736165543108]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.798561299892754e-14</v>
+        <v>4.971578704271451e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.798561299892754e-14</v>
+        <v>4.971578704271451e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>11.83855855855863</v>
+        <v>13.83939939939948</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.32432432432439</v>
+        <v>11.54810810810818</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.35279279279288</v>
+        <v>16.13069069069079</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002366278418635126</v>
+        <v>0.0003298730223246782</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002366278418635126</v>
+        <v>0.0003298730223246782</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>40.16519570367986</v>
+        <v>50.42501862263726</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[17.93457052645023, 62.39582088090948]</t>
+          <t>[23.16710822980984, 77.68292901546468]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0007026737695077223</v>
+        <v>0.000540913066662263</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007026737695077223</v>
+        <v>0.000540913066662263</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.842842601446619</v>
+        <v>-3.107000542289004</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.484369029206698, -2.2013161736865405]</t>
+          <t>[-3.82400066743262, -2.390000417145388]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.616262679249303e-11</v>
+        <v>3.08300052154209e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>1.616262679249303e-11</v>
+        <v>3.08300052154209e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>63.42809797605642</v>
+        <v>57.51684971854933</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.50631789549506, 76.34987805661778]</t>
+          <t>[40.81438367552167, 74.219315761577]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.427392034742297e-13</v>
+        <v>1.268840321699827e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>7.427392034742297e-13</v>
+        <v>1.268840321699827e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>10.37021021021027</v>
+        <v>11.31897897897905</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.030030030030076</v>
+        <v>8.70690690690696</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.71039039039047</v>
+        <v>13.93105105105113</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.147740305507128e-05</v>
+        <v>9.796592992827868e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>1.147740305507128e-05</v>
+        <v>9.796592992827868e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.64990995339727</v>
+        <v>45.85870601652379</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[22.06675926178403, 65.23306064501051]</t>
+          <t>[23.825329698975807, 67.89208233407177]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0001855315159955406</v>
+        <v>0.0001276751830161515</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001855315159955406</v>
+        <v>0.0001276751830161515</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.691895206679542</v>
+        <v>-2.629000458859927</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.2076321388003888, -2.1761582745586954]</t>
+          <t>[-3.1195794918529276, -2.1384214258669263]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.06137321154165e-13</v>
+        <v>4.507505479978136e-14</v>
       </c>
       <c r="S13" t="n">
-        <v>1.06137321154165e-13</v>
+        <v>4.507505479978136e-14</v>
       </c>
       <c r="T13" t="n">
-        <v>70.82062344823339</v>
+        <v>69.8122485949003</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[59.27181550543712, 82.36943139102966]</t>
+          <t>[57.808861202145614, 81.81563598765499]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="W13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="X13" t="n">
-        <v>9.819579579579639</v>
+        <v>9.577597597597656</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.938258258258307</v>
+        <v>7.790390390390439</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.70090090090097</v>
+        <v>11.36480480480487</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00310114860224231</v>
+        <v>0.0001061784288164391</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00310114860224231</v>
+        <v>0.0001061784288164391</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>29.13242399092697</v>
+        <v>41.86163267537493</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[7.316000833206054, 50.94884714864788]</t>
+          <t>[17.229487567950358, 66.4937777827995]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.01000166468749453</v>
+        <v>0.001330186668642375</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01000166468749453</v>
+        <v>0.001330186668642375</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.31452671976185</v>
+        <v>-2.364842518017542</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.9937899962136965, -1.6352634433100026]</t>
+          <t>[-2.893158399702312, -1.8365266363327724]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.627993873043465e-08</v>
+        <v>1.20481402632322e-11</v>
       </c>
       <c r="S14" t="n">
-        <v>1.627993873043465e-08</v>
+        <v>1.20481402632322e-11</v>
       </c>
       <c r="T14" t="n">
-        <v>56.41090663054092</v>
+        <v>49.61288625046561</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[45.0368406600942, 67.78497260098764]</t>
+          <t>[37.104124184326324, 62.12164831660489]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.380140777333509e-13</v>
+        <v>3.583244811977693e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>5.380140777333509e-13</v>
+        <v>3.583244811977693e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>8.443003003003057</v>
+        <v>8.61525525525531</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.965165165165204</v>
+        <v>6.690570570570614</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.92084084084091</v>
+        <v>10.53993993994001</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.022450863073182</v>
+        <v>0.0005522054086626316</v>
       </c>
       <c r="I15" t="n">
-        <v>0.022450863073182</v>
+        <v>0.0005522054086626316</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>32.89062591300673</v>
+        <v>30.21498390074568</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[3.718045988842732, 62.06320583717073]</t>
+          <t>[11.019854514116822, 49.410113287374536]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.02799398442536094</v>
+        <v>0.002738986689702072</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02799398442536094</v>
+        <v>0.002738986689702072</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.798789787641002</v>
+        <v>-2.100684577175157</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.96863209708585, -0.6289474781961548]</t>
+          <t>[-2.729632055371312, -1.4717370989790015]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.003361828502516762</v>
+        <v>2.590317316197854e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003361828502516762</v>
+        <v>2.590317316197854e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>53.72718915070733</v>
+        <v>42.4094148213338</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[37.7682883514368, 69.68608994997786]</t>
+          <t>[32.35080662416409, 52.4680230185035]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.156470557679313e-08</v>
+        <v>6.703593236068173e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.156470557679313e-08</v>
+        <v>6.703593236068173e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>6.561681681681723</v>
+        <v>7.652912912912958</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.29429429429431</v>
+        <v>5.361621621621651</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.82906906906913</v>
+        <v>9.944204204204265</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.080564780586712e-05</v>
+        <v>0.0007766170046474841</v>
       </c>
       <c r="I16" t="n">
-        <v>1.080564780586712e-05</v>
+        <v>0.0007766170046474841</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>52.84387880969509</v>
+        <v>39.9237803911716</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[29.398737673186616, 76.28901994620357]</t>
+          <t>[14.68634521370798, 65.16121556863521]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.185408122014955e-05</v>
+        <v>0.002620253571512521</v>
       </c>
       <c r="O16" t="n">
-        <v>4.185408122014955e-05</v>
+        <v>0.002620253571512521</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.874263485024541</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.301947770197926, -1.2453160068283866]</t>
+          <t>[-2.5661057110403114, -1.1824212590087715]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.301644941304914e-08</v>
+        <v>1.986039946277884e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>2.301644941304914e-08</v>
+        <v>1.986039946277884e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>55.77516360246788</v>
+        <v>59.12270773120593</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.27416191489678, 69.27616529003899]</t>
+          <t>[45.54874263638217, 72.69667282602968]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.182525188880845e-10</v>
+        <v>2.661515452473395e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>1.182525188880845e-10</v>
+        <v>2.661515452473395e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>6.469909909909948</v>
+        <v>6.828048048048089</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.542702702702729</v>
+        <v>4.307627627627655</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.397117117117165</v>
+        <v>9.348468468468523</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>5.208329060890637e-05</v>
+        <v>0.003630111122163826</v>
       </c>
       <c r="I17" t="n">
-        <v>5.208329060890637e-05</v>
+        <v>0.003630111122163826</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>45.60902513728459</v>
+        <v>31.86721100790666</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[25.43408451807693, 65.78396575649225]</t>
+          <t>[10.717615538760434, 53.01680647705289]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.004816102431974e-05</v>
+        <v>0.003991265621615669</v>
       </c>
       <c r="O17" t="n">
-        <v>4.004816102431974e-05</v>
+        <v>0.003991265621615669</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.572368695490387</v>
+        <v>-1.647842392873925</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-2.125842476303003, -1.0188949146777713]</t>
+          <t>[-2.503210963220696, -0.7924738225271546]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>8.064401038065938e-07</v>
+        <v>0.0003380035811655357</v>
       </c>
       <c r="S17" t="n">
-        <v>8.064401038065938e-07</v>
+        <v>0.0003380035811655357</v>
       </c>
       <c r="T17" t="n">
-        <v>53.66187135821806</v>
+        <v>56.67427859214764</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[40.877359722390864, 66.44638299404525]</t>
+          <t>[44.24295275046774, 69.10560443382755]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>7.598810469744421e-11</v>
+        <v>7.01838587247039e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>7.598810469744421e-11</v>
+        <v>7.01838587247039e-12</v>
       </c>
       <c r="X17" t="n">
-        <v>5.735735735735773</v>
+        <v>6.003183183183218</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.716756756756783</v>
+        <v>2.887027027027042</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.754714714714763</v>
+        <v>9.119339339339394</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.92000000000014</v>
+        <v>22.89000000000014</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001088688668830051</v>
+        <v>0.01448530747919119</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001088688668830051</v>
+        <v>0.01448530747919119</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>41.25093202608362</v>
+        <v>27.13303425233914</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[12.745648548221837, 69.7562155039454]</t>
+          <t>[6.5984643188131, 47.66760418586519]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.005530655061578349</v>
+        <v>0.01075265740311049</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005530655061578349</v>
+        <v>0.01075265740311049</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.018894914677771</v>
+        <v>-1.610105544182156</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.685579241565696, -0.3522105877898465]</t>
+          <t>[-2.6415794084238495, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.00354145451783805</v>
+        <v>0.002949388379013484</v>
       </c>
       <c r="S18" t="n">
-        <v>0.00354145451783805</v>
+        <v>0.002949388379013484</v>
       </c>
       <c r="T18" t="n">
-        <v>61.03474622016909</v>
+        <v>57.58456994906115</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[46.426248202560586, 75.6432442377776]</t>
+          <t>[45.20097710223439, 69.9681627958879]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>8.647282889739927e-11</v>
+        <v>3.887556943027448e-12</v>
       </c>
       <c r="W18" t="n">
-        <v>8.647282889739927e-11</v>
+        <v>3.887556943027448e-12</v>
       </c>
       <c r="X18" t="n">
-        <v>3.716756756756784</v>
+        <v>5.865705705705739</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.284804804804814</v>
+        <v>2.107987987988001</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.148708708708753</v>
+        <v>9.623423423423478</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_7_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_7_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.810604742158439e-05</v>
+        <v>3.957078957805837e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.810604742158439e-05</v>
+        <v>3.957078957805837e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>51.28363526353807</v>
+        <v>43.98534129507526</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[28.756529442228413, 73.81074108484773]</t>
+          <t>[24.70755266586651, 63.26312992428401]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.609609564492189e-05</v>
+        <v>3.490136289108214e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>3.609609564492189e-05</v>
+        <v>3.490136289108214e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.717026615475502</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1761317842268086, 2.257921446724196]</t>
+          <t>[1.0377633390236545, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.11657725474646e-08</v>
+        <v>6.382566648532872e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>8.11657725474646e-08</v>
+        <v>6.382566648532872e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>65.04649072840394</v>
+        <v>57.26247611812769</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.4147662067068, 78.67821525010108]</t>
+          <t>[45.00640149483144, 69.51855074142394]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.777245017819951e-12</v>
+        <v>3.37041505815705e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.777245017819951e-12</v>
+        <v>3.37041505815705e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.06354354354371</v>
+        <v>17.5784184184186</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.04224224224239</v>
+        <v>15.50482482482498</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.08484484484504</v>
+        <v>19.65201201201222</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002415222203151046</v>
+        <v>0.0001140182369580023</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002415222203151046</v>
+        <v>0.0001140182369580023</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>36.62042602148654</v>
+        <v>47.36702654037667</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[11.759897287404186, 61.48095475556889]</t>
+          <t>[22.3906952196389, 72.34335786111444]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.00480392796184903</v>
+        <v>0.0004067613642435575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00480392796184903</v>
+        <v>0.0004067613642435575</v>
       </c>
       <c r="P3" t="n">
-        <v>1.993763505881811</v>
+        <v>1.79250031285904</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2516054816103477, 2.7359215301532736]</t>
+          <t>[1.1887107337907317, 2.396289891927349]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.317328088974335e-06</v>
+        <v>3.350479220731728e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>2.317328088974335e-06</v>
+        <v>3.350479220731728e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>63.13665594884254</v>
+        <v>67.25914223877443</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.20735123490637, 77.0659606627787]</t>
+          <t>[53.12165429260475, 81.39663018494412]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.33177971060195e-12</v>
+        <v>1.946443006772824e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>8.33177971060195e-12</v>
+        <v>1.946443006772824e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>16.02938938938955</v>
+        <v>16.82438438438456</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.2559759759761</v>
+        <v>14.56228228228243</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.80280280280299</v>
+        <v>19.08648648648668</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.714506438105673e-07</v>
+        <v>0.005754649271031531</v>
       </c>
       <c r="I4" t="n">
-        <v>7.714506438105673e-07</v>
+        <v>0.005754649271031531</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.7490498636465</v>
+        <v>35.65765458190476</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.119811683909504, 66.3782880433835]</t>
+          <t>[7.394258625164625, 63.92105053864489]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.353804527592928e-06</v>
+        <v>0.01457002358186954</v>
       </c>
       <c r="O4" t="n">
-        <v>1.353804527592928e-06</v>
+        <v>0.01457002358186954</v>
       </c>
       <c r="P4" t="n">
-        <v>1.628973968528041</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.0692372032653497]</t>
+          <t>[1.2893423303021168, 2.874289975356427]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.186425707151329e-09</v>
+        <v>3.470825135964972e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>2.186425707151329e-09</v>
+        <v>3.470825135964972e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>52.85877297239808</v>
+        <v>61.60520572861128</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.88081407178338, 63.83673187301278]</t>
+          <t>[46.7658166830183, 76.44459477420426]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.34736666268509e-12</v>
+        <v>1.032574026282873e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34736666268509e-12</v>
+        <v>1.032574026282873e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>17.39259259259276</v>
+        <v>15.74046046046062</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.7473473473475</v>
+        <v>12.77145145145158</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.03783783783803</v>
+        <v>18.70946946946966</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002215180211480039</v>
+        <v>3.644597781315984e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002215180211480039</v>
+        <v>3.644597781315984e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.27876425871541</v>
+        <v>50.55872238105122</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.3612357644905, 64.19629275294032]</t>
+          <t>[24.605582842737903, 76.51186191936453]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001455678072229016</v>
+        <v>0.0002955827752391116</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001455678072229016</v>
+        <v>0.0002955827752391116</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06923720326535</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4654476241970409, 2.6730267823336584]</t>
+          <t>[1.427710775505271, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.421737327866879e-08</v>
+        <v>4.986662860417823e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.421737327866879e-08</v>
+        <v>4.986662860417823e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>68.98453917656042</v>
+        <v>50.21197581371779</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[56.36420281521097, 81.60487553790986]</t>
+          <t>[36.1636587887285, 64.26029283870707]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.353672812205332e-14</v>
+        <v>5.171665540260051e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>2.353672812205332e-14</v>
+        <v>5.171665540260051e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>15.7473473473475</v>
+        <v>16.11747747747764</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.49101101101114</v>
+        <v>14.04388388388403</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.00368368368386</v>
+        <v>18.19107107107126</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.09003333025526e-05</v>
+        <v>0.003640116460670195</v>
       </c>
       <c r="I6" t="n">
-        <v>3.09003333025526e-05</v>
+        <v>0.003640116460670195</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.15391926809096</v>
+        <v>30.82925778660809</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[24.044994177139714, 78.2628443590422]</t>
+          <t>[6.6192106447837205, 55.03930492843246]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0004312232321408427</v>
+        <v>0.01373045063500222</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0004312232321408427</v>
+        <v>0.01373045063500222</v>
       </c>
       <c r="P6" t="n">
-        <v>2.35855304323558</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.8553950606786556, 2.8617110257925047]</t>
+          <t>[1.7421845146033483, 3.125868966634889]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.05311331771918e-12</v>
+        <v>7.598663920305171e-09</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05311331771918e-12</v>
+        <v>7.598663920305171e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>54.95723463894799</v>
+        <v>59.96837072231741</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.78121227378553, 69.13325700411045]</t>
+          <t>[47.65875035590396, 72.27799108873086]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.564357946103883e-10</v>
+        <v>9.390266342279574e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>6.564357946103883e-10</v>
+        <v>9.390266342279574e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>14.66618618618633</v>
+        <v>14.42090090090105</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.78590590590603</v>
+        <v>11.82890890890903</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.54646646646663</v>
+        <v>17.01289289289307</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006162338067408069</v>
+        <v>0.003492565658002822</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006162338067408069</v>
+        <v>0.003492565658002822</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.7866939804381</v>
+        <v>28.84201586184519</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[16.13058027158212, 69.44280768929409]</t>
+          <t>[6.835677304747044, 50.848354418943345]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002296259832721859</v>
+        <v>0.01136143186973526</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002296259832721859</v>
+        <v>0.01136143186973526</v>
       </c>
       <c r="P7" t="n">
-        <v>1.918289808498272</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 2.5849741353861964]</t>
+          <t>[1.666710817219811, 3.000079470995657]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.280057480712031e-07</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>6.280057480712031e-07</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>58.68920350748319</v>
+        <v>39.50260115597303</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.24663872337283, 73.13176829159354]</t>
+          <t>[28.066852013784413, 50.93835029816164]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.859947751370328e-10</v>
+        <v>1.178828656911435e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.859947751370328e-10</v>
+        <v>1.178828656911435e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>16.31143143143159</v>
+        <v>14.79791791791807</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.82006006006019</v>
+        <v>12.30018018018031</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.80280280280299</v>
+        <v>17.29565565565583</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004191564782948243</v>
+        <v>0.005479686342830359</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004191564782948243</v>
+        <v>0.005479686342830359</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.00954285300235</v>
+        <v>30.95940653013508</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[15.413340979912732, 70.60574472609197]</t>
+          <t>[5.547555259960276, 56.37125780030988]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.002990232970284445</v>
+        <v>0.0180717530715131</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002990232970284445</v>
+        <v>0.0180717530715131</v>
       </c>
       <c r="P8" t="n">
-        <v>2.610132034514043</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 3.251658462274121]</t>
+          <t>[1.6541318676558876, 3.0378163196874275]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.798534654540163e-10</v>
+        <v>1.823897832764487e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.798534654540163e-10</v>
+        <v>1.823897832764487e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>60.82363247282126</v>
+        <v>56.01476599754049</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.54875643279162, 75.0985085128509]</t>
+          <t>[43.13960380575896, 68.88992818932203]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.98168173379554e-11</v>
+        <v>2.750599747969318e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.98168173379554e-11</v>
+        <v>2.750599747969318e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>13.72604604604618</v>
+        <v>14.75079079079094</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.3286886886888</v>
+        <v>12.15879879879892</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.12340340340356</v>
+        <v>17.34278278278296</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04201551600984255</v>
+        <v>0.002642841286583542</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04201551600984255</v>
+        <v>0.002642841286583542</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>22.37908273387868</v>
+        <v>28.8114742941424</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.11463556862670998, 44.643529899130655]</t>
+          <t>[7.254983882816113, 50.367964705468694]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04888079767810494</v>
+        <v>0.00993896021304197</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04888079767810494</v>
+        <v>0.00993896021304197</v>
       </c>
       <c r="P9" t="n">
-        <v>2.886868924920351</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 4.232816528260122]</t>
+          <t>[1.6792897667837332, 2.987500521431735]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.497491785131039e-05</v>
+        <v>5.423331561615896e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>8.497491785131039e-05</v>
+        <v>5.423331561615896e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>58.40639585295722</v>
+        <v>46.11015080913431</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.092123524873, 70.72066818104145]</t>
+          <t>[34.98798878898943, 57.23231282927919]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.136513188588651e-12</v>
+        <v>1.072493205356295e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>2.136513188588651e-12</v>
+        <v>1.072493205356295e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>12.69189189189202</v>
+        <v>14.79791791791807</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.662142142142218</v>
+        <v>12.34730730730744</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.72164164164181</v>
+        <v>17.24852852852871</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.48000000000023</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001540235241989873</v>
+        <v>1.010452636174275e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001540235241989873</v>
+        <v>1.010452636174275e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.19458451768744</v>
+        <v>53.92536789834213</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[11.761639064906142, 62.627529970468736]</t>
+          <t>[28.17023196805117, 79.68050382863309]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.00508921210451807</v>
+        <v>0.0001179291040147579</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00508921210451807</v>
+        <v>0.0001179291040147579</v>
       </c>
       <c r="P10" t="n">
-        <v>2.735921530153273</v>
+        <v>2.660447832769734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.0063424554457336, 3.4655006048608126]</t>
+          <t>[2.157289850212811, 3.1636058153266573]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>6.972200594645983e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>6.972200594645983e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>61.0557835214037</v>
+        <v>62.47415441991429</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.284911324220516, 74.82665571858688]</t>
+          <t>[48.38685515603191, 76.56145368379667]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.591859977168042e-11</v>
+        <v>1.580446884474895e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.591859977168042e-11</v>
+        <v>1.580446884474895e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>13.25597597597611</v>
+        <v>13.57261261261275</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.52956956956968</v>
+        <v>11.68752752752765</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.98238238238254</v>
+        <v>15.45769769769786</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001084110647569192</v>
+        <v>3.153456584570336e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001084110647569192</v>
+        <v>3.153456584570336e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>37.21177720411217</v>
+        <v>43.82089828088337</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[12.105964858867715, 62.31758954935663]</t>
+          <t>[21.9177154006792, 65.72408116108754]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.004568969138974532</v>
+        <v>0.0002127555832676098</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004568969138974532</v>
+        <v>0.0002127555832676098</v>
       </c>
       <c r="P11" t="n">
-        <v>2.484342538874812</v>
+        <v>2.92460577361212</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.8553950606786564, 3.113290017070967]</t>
+          <t>[2.3459740936716575, 3.503237453552583]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.998907871505253e-10</v>
+        <v>2.966515921798418e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>3.998907871505253e-10</v>
+        <v>2.966515921798418e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>66.6022587806617</v>
+        <v>57.69655289039657</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.20715590589232, 79.99736165543108]</t>
+          <t>[45.201287672612, 70.19181810818115]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.971578704271451e-13</v>
+        <v>4.800604358479177e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>4.971578704271451e-13</v>
+        <v>4.800604358479177e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>13.83939939939948</v>
+        <v>12.07513513513518</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.54810810810818</v>
+        <v>9.994774774774813</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.13069069069079</v>
+        <v>14.15549549549555</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003298730223246782</v>
+        <v>9.42529121183977e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003298730223246782</v>
+        <v>9.42529121183977e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>50.42501862263726</v>
+        <v>45.63519202045392</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[23.16710822980984, 77.68292901546468]</t>
+          <t>[26.898834404393725, 64.37154963651412]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.000540913066662263</v>
+        <v>1.258621223310108e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000540913066662263</v>
+        <v>1.258621223310108e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-3.107000542289004</v>
+        <v>3.138447916198813</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.82400066743262, -2.390000417145388]</t>
+          <t>[2.610132034514042, 3.666763797883583]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.08300052154209e-11</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="S12" t="n">
-        <v>3.08300052154209e-11</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="T12" t="n">
-        <v>57.51684971854933</v>
+        <v>64.06324308572455</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.81438367552167, 74.219315761577]</t>
+          <t>[51.92383997744773, 76.20264619400137]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.268840321699827e-08</v>
+        <v>7.438494264988549e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>1.268840321699827e-08</v>
+        <v>7.438494264988549e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>11.31897897897905</v>
+        <v>11.30630630630635</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.70690690690696</v>
+        <v>9.406846846846882</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.93105105105113</v>
+        <v>13.20576576576582</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>9.796592992827868e-06</v>
+        <v>5.065547201033027e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>9.796592992827868e-06</v>
+        <v>5.065547201033027e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>45.85870601652379</v>
+        <v>36.83173359856288</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[23.825329698975807, 67.89208233407177]</t>
+          <t>[16.673306963099826, 56.99016023402593]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0001276751830161515</v>
+        <v>0.0006213020618079934</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001276751830161515</v>
+        <v>0.0006213020618079934</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.629000458859927</v>
+        <v>-2.654158357987773</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.1195794918529276, -2.1384214258669263]</t>
+          <t>[-3.220211088364313, -2.0881056276112337]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.507505479978136e-14</v>
+        <v>3.025801831313402e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>4.507505479978136e-14</v>
+        <v>3.025801831313402e-12</v>
       </c>
       <c r="T13" t="n">
-        <v>69.8122485949003</v>
+        <v>47.34284433645505</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[57.808861202145614, 81.81563598765499]</t>
+          <t>[36.70942238372893, 57.976266289181176]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.409206085156711e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.409206085156711e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>9.577597597597656</v>
+        <v>9.542522522522564</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.790390390390439</v>
+        <v>7.50738738738742</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.36480480480487</v>
+        <v>11.57765765765771</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001061784288164391</v>
+        <v>0.1704968633519927</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001061784288164391</v>
+        <v>0.1704968633519927</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>41.86163267537493</v>
+        <v>17.73625542938946</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[17.229487567950358, 66.4937777827995]</t>
+          <t>[-5.75257151295483, 41.22508237173375]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001330186668642375</v>
+        <v>0.1352971901927125</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001330186668642375</v>
+        <v>0.1352971901927125</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.364842518017542</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.893158399702312, -1.8365266363327724]</t>
+          <t>[-5.811474698532469, -0.10063159651138509]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.20481402632322e-11</v>
+        <v>0.04276467516317428</v>
       </c>
       <c r="S14" t="n">
-        <v>1.20481402632322e-11</v>
+        <v>0.04276467516317428</v>
       </c>
       <c r="T14" t="n">
-        <v>49.61288625046561</v>
+        <v>52.42516347108639</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[37.104124184326324, 62.12164831660489]</t>
+          <t>[38.97385992845844, 65.87646701371435]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.583244811977693e-10</v>
+        <v>5.707858630188412e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>3.583244811977693e-10</v>
+        <v>5.707858630188412e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>8.61525525525531</v>
+        <v>10.62792792792797</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.690570570570614</v>
+        <v>0.3618018018018034</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.53993993994001</v>
+        <v>20.89405405405413</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0005522054086626316</v>
+        <v>0.02789908139402264</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005522054086626316</v>
+        <v>0.02789908139402264</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>30.21498390074568</v>
+        <v>29.11700024366604</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[11.019854514116822, 49.410113287374536]</t>
+          <t>[1.8193196764433424, 56.41468081088874]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.002738986689702072</v>
+        <v>0.03710560161229748</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002738986689702072</v>
+        <v>0.03710560161229748</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.100684577175157</v>
+        <v>-1.987474031099849</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.729632055371312, -1.4717370989790015]</t>
+          <t>[-3.2831058361839274, -0.69184222601577]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.590317316197854e-08</v>
+        <v>0.003431109168309909</v>
       </c>
       <c r="S15" t="n">
-        <v>2.590317316197854e-08</v>
+        <v>0.003431109168309909</v>
       </c>
       <c r="T15" t="n">
-        <v>42.4094148213338</v>
+        <v>58.66632262298738</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[32.35080662416409, 52.4680230185035]</t>
+          <t>[44.10682990629043, 73.22581533968433]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>6.703593236068173e-11</v>
+        <v>2.340829752256468e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>6.703593236068173e-11</v>
+        <v>2.340829752256468e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>7.652912912912958</v>
+        <v>7.145585585585613</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.361621621621651</v>
+        <v>2.487387387387396</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.944204204204265</v>
+        <v>11.80378378378383</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007766170046474841</v>
+        <v>3.82752654836116e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0007766170046474841</v>
+        <v>3.82752654836116e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>39.9237803911716</v>
+        <v>49.27090408728862</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[14.68634521370798, 65.16121556863521]</t>
+          <t>[25.855035108981482, 72.68677306559576]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.002620253571512521</v>
+        <v>0.0001103451783486253</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002620253571512521</v>
+        <v>0.0001103451783486253</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.874263485024541</v>
+        <v>-1.723316090257464</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.5661057110403114, -1.1824212590087715]</t>
+          <t>[-2.2893688206340035, -1.157263359880925]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.986039946277884e-06</v>
+        <v>1.989198961105387e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>1.986039946277884e-06</v>
+        <v>1.989198961105387e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>59.12270773120593</v>
+        <v>63.58776051157315</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[45.54874263638217, 72.69667282602968]</t>
+          <t>[50.12201412632804, 77.05350689681826]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.661515452473395e-11</v>
+        <v>2.442046564965494e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.661515452473395e-11</v>
+        <v>2.442046564965494e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>6.828048048048089</v>
+        <v>6.195855855855882</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.307627627627655</v>
+        <v>4.160720720720739</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.348468468468523</v>
+        <v>8.230990990991025</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003630111122163826</v>
+        <v>1.065136490308038e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003630111122163826</v>
+        <v>1.065136490308038e-05</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>31.86721100790666</v>
+        <v>41.39982944316753</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[10.717615538760434, 53.01680647705289]</t>
+          <t>[22.06830793603079, 60.731350950304275]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.003991265621615669</v>
+        <v>8.679353129448231e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003991265621615669</v>
+        <v>8.679353129448231e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.647842392873925</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-2.503210963220696, -0.7924738225271546]</t>
+          <t>[-1.685579241565696, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.0003380035811655357</v>
+        <v>2.224317447474533e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0003380035811655357</v>
+        <v>2.224317447474533e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>56.67427859214764</v>
+        <v>51.50484880744168</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[44.24295275046774, 69.10560443382755]</t>
+          <t>[40.8540675332834, 62.15563008159995]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>7.01838587247039e-12</v>
+        <v>1.179945030571616e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>7.01838587247039e-12</v>
+        <v>1.179945030571616e-12</v>
       </c>
       <c r="X17" t="n">
-        <v>6.003183183183218</v>
+        <v>4.25117117117119</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.887027027027042</v>
+        <v>2.442162162162171</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.119339339339394</v>
+        <v>6.060180180180209</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.89000000000014</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01448530747919119</v>
+        <v>0.0001426038459738654</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01448530747919119</v>
+        <v>0.0001426038459738654</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>27.13303425233914</v>
+        <v>43.61891024749618</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[6.5984643188131, 47.66760418586519]</t>
+          <t>[18.26400394417746, 68.9738165508149]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.01075265740311049</v>
+        <v>0.00117657176008823</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01075265740311049</v>
+        <v>0.00117657176008823</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.610105544182156</v>
+        <v>-0.5408948312486928</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-2.6415794084238495, -0.5786316799404627]</t>
+          <t>[-1.1446844103170015, 0.06289474781961601]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.002949388379013484</v>
+        <v>0.07787954629720151</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002949388379013484</v>
+        <v>0.07787954629720151</v>
       </c>
       <c r="T18" t="n">
-        <v>57.58456994906115</v>
+        <v>57.68883673938036</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[45.20097710223439, 69.9681627958879]</t>
+          <t>[44.09200353468624, 71.28566994407447]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>3.887556943027448e-12</v>
+        <v>5.617106779709502e-11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.887556943027448e-12</v>
+        <v>5.617106779709502e-11</v>
       </c>
       <c r="X18" t="n">
-        <v>5.865705705705739</v>
+        <v>1.944684684684692</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.107987987988001</v>
+        <v>-0.2261261261261285</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.623423423423478</v>
+        <v>4.115495495495512</v>
       </c>
     </row>
   </sheetData>
